--- a/spec/files/0_2_0_template.xlsx
+++ b/spec/files/0_2_0_template.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="19640" yWindow="0" windowWidth="31560" windowHeight="27640" tabRatio="562" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="51200" windowHeight="28260" tabRatio="562" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2558" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2554" uniqueCount="680">
   <si>
     <t>type</t>
   </si>
@@ -1493,12 +1493,6 @@
     <t>(double)</t>
   </si>
   <si>
-    <t>Allow Multiple Jobs</t>
-  </si>
-  <si>
-    <t>Use Server As Worker</t>
-  </si>
-  <si>
     <t>Simulate Data Point Filename</t>
   </si>
   <si>
@@ -1521,9 +1515,6 @@
   </si>
   <si>
     <t>Cluster Name</t>
-  </si>
-  <si>
-    <t>Disable this is the analysis is large</t>
   </si>
   <si>
     <t>Display name of the analysis</t>
@@ -3620,7 +3611,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3681,9 +3672,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5439,16 +5427,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" style="33" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" style="32" customWidth="1"/>
     <col min="3" max="3" width="32.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47" style="1" bestFit="1" customWidth="1"/>
@@ -5457,7 +5443,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="22"/>
-      <c r="B1" s="35"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
       <c r="E1" s="23" t="s">
@@ -5468,7 +5454,7 @@
       <c r="A2" s="12" t="s">
         <v>443</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
@@ -5477,8 +5463,8 @@
       <c r="A3" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="B3" s="33" t="s">
-        <v>631</v>
+      <c r="B3" s="32" t="s">
+        <v>628</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>445</v>
@@ -5488,8 +5474,8 @@
       <c r="A4" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="B4" s="32" t="s">
-        <v>550</v>
+      <c r="B4" s="31" t="s">
+        <v>547</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>474</v>
@@ -5497,31 +5483,31 @@
     </row>
     <row r="5" spans="1:5" ht="28">
       <c r="A5" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>677</v>
+        <v>489</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>674</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="56">
       <c r="A6" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>639</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>493</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>642</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="31" t="s">
         <v>447</v>
       </c>
       <c r="C7" s="3" t="str">
@@ -5540,7 +5526,7 @@
       <c r="A8" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="31" t="s">
         <v>448</v>
       </c>
       <c r="C8" s="3" t="str">
@@ -5559,7 +5545,7 @@
       <c r="A9" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="B9" s="32">
+      <c r="B9" s="31">
         <v>2</v>
       </c>
       <c r="C9" s="3"/>
@@ -5572,7 +5558,7 @@
       <c r="A11" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="34"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="12"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
@@ -5581,38 +5567,38 @@
       <c r="A12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="32" t="s">
-        <v>641</v>
+      <c r="B12" s="31" t="s">
+        <v>638</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="39" t="s">
-        <v>679</v>
+      <c r="B13" s="38" t="s">
+        <v>676</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="39" t="s">
-        <v>680</v>
+      <c r="B14" s="38" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="B15" s="32" t="b">
-        <v>1</v>
+      <c r="B15" s="31" t="s">
+        <v>485</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>445</v>
@@ -5620,316 +5606,291 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="B16" s="31" t="b">
-        <v>1</v>
+        <v>486</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>596</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>494</v>
+        <v>445</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>487</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>599</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>445</v>
+      <c r="B17" s="31"/>
+    </row>
+    <row r="18" spans="1:5" s="2" customFormat="1" ht="56">
+      <c r="A18" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="33"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="14" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="B19" s="32"/>
-    </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="56">
-      <c r="A20" s="12" t="s">
+      <c r="A19" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="37"/>
+    </row>
+    <row r="21" spans="1:5" s="37" customFormat="1">
+      <c r="B21" s="32"/>
+    </row>
+    <row r="22" spans="1:5" s="2" customFormat="1" ht="56">
+      <c r="A22" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="B22" s="33"/>
+      <c r="C22" s="12" t="s">
+        <v>657</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="14" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="37" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,1,3*MATCH(Setup!$B19,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$22,1,3*MATCH(Setup!$B19,Lookups!$A$13:$A$19,0)-2))</f>
+        <v>popSize</v>
+      </c>
+      <c r="B23" s="31">
+        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,1,3*MATCH(Setup!$B19,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,1,3*MATCH(Setup!$B19,Lookups!$A$13:$A$19,0)-1))</f>
         <v>30</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="14" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="B21" s="32" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="38"/>
-    </row>
-    <row r="23" spans="1:5" s="38" customFormat="1">
-      <c r="B23" s="33"/>
-    </row>
-    <row r="24" spans="1:5" s="2" customFormat="1" ht="56">
-      <c r="A24" s="12" t="s">
-        <v>467</v>
-      </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="12" t="s">
-        <v>660</v>
-      </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="14" t="s">
-        <v>472</v>
+      <c r="C23" s="32" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,1,3*MATCH(Setup!$B19,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$22,1,3*MATCH(Setup!$B19,Lookups!$A$13:$A$19,0)))</f>
+        <v>Size of initial population</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="37" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,2,3*MATCH(Setup!$B19,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$22,2,3*MATCH(Setup!$B19,Lookups!$A$13:$A$19,0)-2))</f>
+        <v>Generations</v>
+      </c>
+      <c r="B24" s="31">
+        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,2,3*MATCH(Setup!$B19,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,2,3*MATCH(Setup!$B19,Lookups!$A$13:$A$19,0)-1))</f>
+        <v>5</v>
+      </c>
+      <c r="C24" s="32" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,2,3*MATCH(Setup!$B19,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$22,2,3*MATCH(Setup!$B19,Lookups!$A$13:$A$19,0)))</f>
+        <v>Number of generations</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="38" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,1,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$22,1,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))</f>
-        <v>popSize</v>
-      </c>
-      <c r="B25" s="32">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,1,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,1,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))</f>
-        <v>30</v>
-      </c>
-      <c r="C25" s="33" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,1,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$22,1,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
-        <v>Size of initial population</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="38" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,2,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$22,2,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))</f>
-        <v>Generations</v>
-      </c>
-      <c r="B26" s="32">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,2,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,2,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))</f>
-        <v>5</v>
-      </c>
-      <c r="C26" s="33" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,2,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$22,2,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
-        <v>Number of generations</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="38" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,3,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$22,3,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))</f>
+      <c r="A25" s="37" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,3,3*MATCH(Setup!$B19,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$22,3,3*MATCH(Setup!$B19,Lookups!$A$13:$A$19,0)-2))</f>
         <v>waitGenerations</v>
       </c>
-      <c r="B27" s="32">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,3,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,3,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))</f>
-        <v>2</v>
-      </c>
-      <c r="C27" s="33" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,3,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$22,3,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
+      <c r="B25" s="31">
+        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,3,3*MATCH(Setup!$B19,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,3,3*MATCH(Setup!$B19,Lookups!$A$13:$A$19,0)-1))</f>
+        <v>2</v>
+      </c>
+      <c r="C25" s="32" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,3,3*MATCH(Setup!$B19,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$22,3,3*MATCH(Setup!$B19,Lookups!$A$13:$A$19,0)))</f>
         <v>If no improvement in waitGenerations of generations, then exit</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="38" customFormat="1">
-      <c r="A28" s="38" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,4,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$22,4,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))</f>
+    <row r="26" spans="1:5" s="37" customFormat="1">
+      <c r="A26" s="37" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,4,3*MATCH(Setup!$B19,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$22,4,3*MATCH(Setup!$B19,Lookups!$A$13:$A$19,0)-2))</f>
         <v>bfgsburnin</v>
       </c>
-      <c r="B28" s="32">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,4,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,4,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))</f>
-        <v>2</v>
-      </c>
-      <c r="C28" s="33" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,4,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$22,4,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
+      <c r="B26" s="31">
+        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,4,3*MATCH(Setup!$B19,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,4,3*MATCH(Setup!$B19,Lookups!$A$13:$A$19,0)-1))</f>
+        <v>2</v>
+      </c>
+      <c r="C26" s="32" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,4,3*MATCH(Setup!$B19,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$22,4,3*MATCH(Setup!$B19,Lookups!$A$13:$A$19,0)))</f>
         <v>The number of generations which are run before the BFGS is ﬁrst used</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="38" customFormat="1">
-      <c r="A29" s="38" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,5,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$22,5,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))</f>
+    <row r="27" spans="1:5" s="37" customFormat="1">
+      <c r="A27" s="37" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,5,3*MATCH(Setup!$B19,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$22,5,3*MATCH(Setup!$B19,Lookups!$A$13:$A$19,0)-2))</f>
         <v>solutionTolerance</v>
       </c>
-      <c r="B29" s="32">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,5,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,5,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))</f>
+      <c r="B27" s="31">
+        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,5,3*MATCH(Setup!$B19,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,5,3*MATCH(Setup!$B19,Lookups!$A$13:$A$19,0)-1))</f>
         <v>0.01</v>
       </c>
-      <c r="C29" s="33" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,5,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$22,5,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
+      <c r="C27" s="32" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,5,3*MATCH(Setup!$B19,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$22,5,3*MATCH(Setup!$B19,Lookups!$A$13:$A$19,0)))</f>
         <v>Numbers within solutionTolerance are considered equal</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="38" customFormat="1">
-      <c r="A30" s="38" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,6,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$22,6,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))</f>
+    <row r="28" spans="1:5" s="37" customFormat="1">
+      <c r="A28" s="37" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,6,3*MATCH(Setup!$B19,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$22,6,3*MATCH(Setup!$B19,Lookups!$A$13:$A$19,0)-2))</f>
         <v>epsilonGradient</v>
       </c>
-      <c r="B30" s="32">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,6,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,6,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))</f>
+      <c r="B28" s="31">
+        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,6,3*MATCH(Setup!$B19,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,6,3*MATCH(Setup!$B19,Lookups!$A$13:$A$19,0)-1))</f>
         <v>0.01</v>
       </c>
-      <c r="C30" s="33" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,6,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$22,6,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
+      <c r="C28" s="32" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,6,3*MATCH(Setup!$B19,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$22,6,3*MATCH(Setup!$B19,Lookups!$A$13:$A$19,0)))</f>
         <v>epsilon in gradient calculation</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="38" customFormat="1">
-      <c r="A31" s="38" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,7,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$22,7,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))</f>
+    <row r="29" spans="1:5" s="37" customFormat="1">
+      <c r="A29" s="37" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,7,3*MATCH(Setup!$B19,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$22,7,3*MATCH(Setup!$B19,Lookups!$A$13:$A$19,0)-2))</f>
         <v>pgtol</v>
       </c>
-      <c r="B31" s="32">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,7,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,7,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))</f>
+      <c r="B29" s="31">
+        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,7,3*MATCH(Setup!$B19,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,7,3*MATCH(Setup!$B19,Lookups!$A$13:$A$19,0)-1))</f>
         <v>0.01</v>
       </c>
-      <c r="C31" s="33" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,7,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$22,7,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
+      <c r="C29" s="32" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,7,3*MATCH(Setup!$B19,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$22,7,3*MATCH(Setup!$B19,Lookups!$A$13:$A$19,0)))</f>
         <v>tolerance on the projected gradient</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="38" customFormat="1">
-      <c r="A32" s="38" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,8,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$22,8,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))</f>
+    <row r="30" spans="1:5" s="37" customFormat="1">
+      <c r="A30" s="37" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,8,3*MATCH(Setup!$B19,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$22,8,3*MATCH(Setup!$B19,Lookups!$A$13:$A$19,0)-2))</f>
         <v>factr</v>
       </c>
-      <c r="B32" s="32">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,8,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,8,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))</f>
+      <c r="B30" s="31">
+        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,8,3*MATCH(Setup!$B19,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,8,3*MATCH(Setup!$B19,Lookups!$A$13:$A$19,0)-1))</f>
         <v>45036000000000</v>
       </c>
-      <c r="C32" s="33" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,8,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$22,8,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
+      <c r="C30" s="32" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,8,3*MATCH(Setup!$B19,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$22,8,3*MATCH(Setup!$B19,Lookups!$A$13:$A$19,0)))</f>
         <v>Tolerance on delta_F</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="38" customFormat="1">
-      <c r="A33" s="38" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,9,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$22,9,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))</f>
+    <row r="31" spans="1:5" s="37" customFormat="1">
+      <c r="A31" s="37" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,9,3*MATCH(Setup!$B19,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$22,9,3*MATCH(Setup!$B19,Lookups!$A$13:$A$19,0)-2))</f>
         <v>maxit</v>
       </c>
-      <c r="B33" s="32">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,9,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,9,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))</f>
+      <c r="B31" s="31">
+        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,9,3*MATCH(Setup!$B19,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,9,3*MATCH(Setup!$B19,Lookups!$A$13:$A$19,0)-1))</f>
         <v>100</v>
       </c>
-      <c r="C33" s="33" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,9,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$22,9,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
+      <c r="C31" s="32" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,9,3*MATCH(Setup!$B19,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$22,9,3*MATCH(Setup!$B19,Lookups!$A$13:$A$19,0)))</f>
         <v>Maximum number of iterations</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="38" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,10,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$22,10,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))</f>
+    <row r="32" spans="1:5">
+      <c r="A32" s="37" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,10,3*MATCH(Setup!$B19,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$22,10,3*MATCH(Setup!$B19,Lookups!$A$13:$A$19,0)-2))</f>
         <v>normType</v>
       </c>
-      <c r="B34" s="32" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,10,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,10,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))</f>
+      <c r="B32" s="31" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,10,3*MATCH(Setup!$B19,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,10,3*MATCH(Setup!$B19,Lookups!$A$13:$A$19,0)-1))</f>
         <v>minkowski</v>
       </c>
-      <c r="C34" s="33" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,10,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$22,10,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
+      <c r="C32" s="32" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,10,3*MATCH(Setup!$B19,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$22,10,3*MATCH(Setup!$B19,Lookups!$A$13:$A$19,0)))</f>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:5" s="38" customFormat="1">
-      <c r="A35" s="38" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$23,11,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$23,11,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))</f>
+    <row r="33" spans="1:5" s="37" customFormat="1">
+      <c r="A33" s="37" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$23,11,3*MATCH(Setup!$B19,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$23,11,3*MATCH(Setup!$B19,Lookups!$A$13:$A$19,0)-2))</f>
         <v>pPower</v>
       </c>
-      <c r="B35" s="32">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$23,11,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$23,11,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))</f>
-        <v>2</v>
-      </c>
-      <c r="C35" s="33" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$23,11,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$23,11,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
+      <c r="B33" s="31">
+        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$23,11,3*MATCH(Setup!$B19,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$23,11,3*MATCH(Setup!$B19,Lookups!$A$13:$A$19,0)-1))</f>
+        <v>2</v>
+      </c>
+      <c r="C33" s="32" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$23,11,3*MATCH(Setup!$B19,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$23,11,3*MATCH(Setup!$B19,Lookups!$A$13:$A$19,0)))</f>
         <v>Lp norm power</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="38" customFormat="1">
-      <c r="B36" s="32"/>
-      <c r="C36" s="33"/>
-    </row>
-    <row r="37" spans="1:5" s="2" customFormat="1" ht="28">
-      <c r="A37" s="12" t="s">
+    <row r="34" spans="1:5" s="37" customFormat="1">
+      <c r="B34" s="31"/>
+      <c r="C34" s="32"/>
+    </row>
+    <row r="35" spans="1:5" s="2" customFormat="1" ht="28">
+      <c r="A35" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="34" t="s">
+      <c r="B35" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C35" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D37" s="12"/>
-      <c r="E37" s="14"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="1" t="s">
+      <c r="D35" s="12"/>
+      <c r="E35" s="14"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="39" t="s">
+      <c r="B36" s="38" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="2" customFormat="1" ht="28">
+      <c r="A38" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="33" t="s">
+        <v>470</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="28">
+      <c r="A39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="32" t="s">
+        <v>623</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="24" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" s="2" customFormat="1" ht="28">
-      <c r="A40" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B40" s="34" t="s">
-        <v>470</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="28">
-      <c r="A41" s="1" t="s">
-        <v>35</v>
+      <c r="E39" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="2" customFormat="1" ht="42">
+      <c r="A41" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="B41" s="33" t="s">
-        <v>626</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D41" s="24" t="s">
-        <v>681</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" s="2" customFormat="1" ht="42">
-      <c r="A43" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B43" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C41" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D43" s="12"/>
-      <c r="E43" s="14"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="14"/>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
       <formula1>AnalysisType</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15:B16">
-      <formula1>TrueFalse</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16">
       <formula1>Workflow</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
       <formula1>simulate_data_point</formula1>
     </dataValidation>
   </dataValidations>
@@ -5958,8 +5919,8 @@
   <dimension ref="A1:Z96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26:C95"/>
+      <pane ySplit="3" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6002,27 +5963,27 @@
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
       <c r="K1" s="25" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="L1" s="26"/>
       <c r="M1" s="26"/>
       <c r="N1" s="26"/>
       <c r="O1" s="26"/>
       <c r="P1" s="27" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="Q1" s="28"/>
       <c r="R1" s="28"/>
       <c r="S1" s="6"/>
       <c r="T1" s="6"/>
-      <c r="U1" s="40" t="s">
+      <c r="U1" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
     </row>
     <row r="2" spans="1:26" s="9" customFormat="1" ht="15">
       <c r="A2" s="9" t="s">
@@ -6032,10 +5993,10 @@
         <v>40</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
@@ -6084,13 +6045,13 @@
         <v>9</v>
       </c>
       <c r="O3" s="18" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="P3" s="18" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="Q3" s="18" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="R3" s="11" t="s">
         <v>8</v>
@@ -6157,7 +6118,7 @@
       <c r="B6" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="36" t="s">
         <v>49</v>
       </c>
       <c r="D6" t="s">
@@ -6461,7 +6422,7 @@
         <v>293</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="D16" s="20" t="s">
         <v>294</v>
@@ -6773,7 +6734,7 @@
         <v>75</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="D26" t="s">
         <v>75</v>
@@ -6916,7 +6877,7 @@
         <v>195</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="D32" s="20" t="s">
         <v>196</v>
@@ -7054,7 +7015,7 @@
         <v>335</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="D36" s="20" t="s">
         <v>336</v>
@@ -7146,7 +7107,7 @@
         <v>224</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="D39" s="20" t="s">
         <v>225</v>
@@ -7208,10 +7169,10 @@
       </c>
       <c r="H41" s="20"/>
       <c r="I41" s="20" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="J41" s="20" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="P41" s="1"/>
     </row>
@@ -7537,10 +7498,10 @@
         <v>0</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="D54" s="20" t="s">
         <v>394</v>
@@ -7575,7 +7536,7 @@
       </c>
       <c r="H55" s="20"/>
       <c r="I55" s="20" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="J55" s="20" t="s">
         <v>438</v>
@@ -7589,7 +7550,7 @@
       </c>
       <c r="C56" s="20"/>
       <c r="D56" s="20" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="E56" s="20" t="s">
         <v>398</v>
@@ -7629,10 +7590,10 @@
         <v>0</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="D57" s="20" t="s">
         <v>394</v>
@@ -7677,7 +7638,7 @@
       </c>
       <c r="H58" s="20"/>
       <c r="I58" s="20" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="J58" s="20" t="s">
         <v>438</v>
@@ -7701,7 +7662,7 @@
       </c>
       <c r="C59" s="20"/>
       <c r="D59" s="20" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E59" s="20" t="s">
         <v>398</v>
@@ -7745,10 +7706,10 @@
         <v>0</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="D60" s="20" t="s">
         <v>394</v>
@@ -7793,7 +7754,7 @@
       </c>
       <c r="H61" s="20"/>
       <c r="I61" s="20" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="J61" s="20" t="s">
         <v>438</v>
@@ -7817,7 +7778,7 @@
       </c>
       <c r="C62" s="20"/>
       <c r="D62" s="20" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="E62" s="20" t="s">
         <v>398</v>
@@ -7861,10 +7822,10 @@
         <v>0</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="D63" s="20" t="s">
         <v>394</v>
@@ -7909,7 +7870,7 @@
       </c>
       <c r="H64" s="20"/>
       <c r="I64" s="20" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="J64" s="20" t="s">
         <v>438</v>
@@ -7933,7 +7894,7 @@
       </c>
       <c r="C65" s="20"/>
       <c r="D65" s="20" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="E65" s="20" t="s">
         <v>398</v>
@@ -7977,10 +7938,10 @@
         <v>0</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="D66" s="20" t="s">
         <v>394</v>
@@ -8025,7 +7986,7 @@
       </c>
       <c r="H67" s="20"/>
       <c r="I67" s="20" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="J67" s="20" t="s">
         <v>438</v>
@@ -8051,7 +8012,7 @@
       </c>
       <c r="C68" s="20"/>
       <c r="D68" s="20" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="E68" s="20" t="s">
         <v>398</v>
@@ -8097,13 +8058,13 @@
         <v>1</v>
       </c>
       <c r="B69" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="D69" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="E69" t="s">
         <v>74</v>
@@ -8126,10 +8087,10 @@
       </c>
       <c r="C70"/>
       <c r="D70" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E70" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F70" t="s">
         <v>2</v>
@@ -8139,10 +8100,10 @@
       </c>
       <c r="H70"/>
       <c r="I70" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="J70" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="K70"/>
       <c r="L70"/>
@@ -8157,10 +8118,10 @@
       </c>
       <c r="C71"/>
       <c r="D71" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="E71" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F71" t="s">
         <v>2</v>
@@ -8186,10 +8147,10 @@
       </c>
       <c r="C72"/>
       <c r="D72" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E72" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F72" t="s">
         <v>15</v>
@@ -8231,10 +8192,10 @@
       </c>
       <c r="C73"/>
       <c r="D73" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E73" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F73" t="s">
         <v>2</v>
@@ -8260,16 +8221,16 @@
       </c>
       <c r="C74"/>
       <c r="D74" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E74" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F74" t="s">
         <v>2</v>
       </c>
       <c r="G74" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H74"/>
       <c r="I74" t="b">
@@ -8289,10 +8250,10 @@
       </c>
       <c r="C75"/>
       <c r="D75" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E75" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F75" t="s">
         <v>2</v>
@@ -8305,7 +8266,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="K75"/>
       <c r="L75"/>
@@ -8320,10 +8281,10 @@
       </c>
       <c r="C76"/>
       <c r="D76" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="E76" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F76" t="s">
         <v>2</v>
@@ -8336,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="K76"/>
       <c r="L76"/>
@@ -8352,7 +8313,7 @@
         <v>263</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="D77" t="s">
         <v>264</v>
@@ -8420,10 +8381,10 @@
         <v>23</v>
       </c>
       <c r="D79" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="E79" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F79" t="s">
         <v>2</v>
@@ -8521,13 +8482,13 @@
         <v>1</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C83" s="20" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>74</v>
@@ -8552,10 +8513,10 @@
         <v>23</v>
       </c>
       <c r="D84" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E84" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="F84" t="s">
         <v>2</v>
@@ -8564,10 +8525,10 @@
         <v>68</v>
       </c>
       <c r="I84" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="J84" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
@@ -8582,10 +8543,10 @@
         <v>24</v>
       </c>
       <c r="D85" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E85" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F85" t="s">
         <v>15</v>
@@ -8621,13 +8582,13 @@
         <v>1</v>
       </c>
       <c r="B86" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="D86" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="E86" t="s">
         <v>74</v>
@@ -8638,10 +8599,10 @@
         <v>24</v>
       </c>
       <c r="D87" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="E87" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="F87" t="s">
         <v>15</v>
@@ -8675,10 +8636,10 @@
         <v>24</v>
       </c>
       <c r="D88" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="E88" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="F88" t="s">
         <v>15</v>
@@ -8712,13 +8673,13 @@
         <v>1</v>
       </c>
       <c r="B89" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="D89" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>74</v>
@@ -8729,10 +8690,10 @@
         <v>24</v>
       </c>
       <c r="D90" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="E90" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="F90" t="s">
         <v>15</v>
@@ -8766,13 +8727,13 @@
         <v>1</v>
       </c>
       <c r="B91" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C91" s="20" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="D91" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>74</v>
@@ -8783,10 +8744,10 @@
         <v>24</v>
       </c>
       <c r="D92" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="E92" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="F92" t="s">
         <v>15</v>
@@ -8820,13 +8781,13 @@
         <v>1</v>
       </c>
       <c r="B93" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C93" s="20" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="D93" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>74</v>
@@ -8837,10 +8798,10 @@
         <v>24</v>
       </c>
       <c r="D94" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="F94" t="s">
         <v>15</v>
@@ -8874,13 +8835,13 @@
         <v>1</v>
       </c>
       <c r="B95" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C95" s="20" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="D95" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="E95" t="s">
         <v>168</v>
@@ -8910,10 +8871,10 @@
         <v>24</v>
       </c>
       <c r="D96" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="E96" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F96" t="s">
         <v>15</v>
@@ -8985,7 +8946,7 @@
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="8" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -9009,10 +8970,10 @@
         <v>481</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="16" customFormat="1" ht="30">
@@ -9026,18 +8987,18 @@
       </c>
       <c r="F3" s="17"/>
       <c r="G3" s="11" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B4" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C4" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -9050,13 +9011,13 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B5" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C5" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -9069,13 +9030,13 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B6" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C6" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -9091,13 +9052,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B7" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C7" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -9113,13 +9074,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B8" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C8" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -9135,13 +9096,13 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B9" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C9" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -9157,13 +9118,13 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B10" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C10" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -9179,13 +9140,13 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B11" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C11" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -9201,13 +9162,13 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B12" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C12" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -9223,13 +9184,13 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B13" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C13" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -9245,13 +9206,13 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B14" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C14" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -9267,13 +9228,13 @@
     </row>
     <row r="15" spans="1:7" customFormat="1">
       <c r="A15" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B15" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C15" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
@@ -9288,13 +9249,13 @@
     </row>
     <row r="16" spans="1:7" customFormat="1">
       <c r="A16" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B16" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C16" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
@@ -9309,13 +9270,13 @@
     </row>
     <row r="17" spans="1:7" customFormat="1">
       <c r="A17" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="B17" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C17" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
@@ -9330,13 +9291,13 @@
     </row>
     <row r="18" spans="1:7" customFormat="1">
       <c r="A18" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B18" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C18" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
@@ -9351,13 +9312,13 @@
     </row>
     <row r="19" spans="1:7" customFormat="1">
       <c r="A19" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B19" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C19" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
@@ -9372,13 +9333,13 @@
     </row>
     <row r="20" spans="1:7" customFormat="1">
       <c r="A20" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B20" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C20" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
@@ -9393,13 +9354,13 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B21" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C21" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
@@ -9415,13 +9376,13 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B22" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C22" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
@@ -9437,13 +9398,13 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B23" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C23" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
@@ -9459,13 +9420,13 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B24" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C24" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D24" t="b">
         <v>1</v>
@@ -9481,13 +9442,13 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B25" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C25" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
@@ -9503,13 +9464,13 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B26" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C26" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
@@ -9525,13 +9486,13 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
+        <v>618</v>
+      </c>
+      <c r="B27" t="s">
+        <v>618</v>
+      </c>
+      <c r="C27" t="s">
         <v>621</v>
-      </c>
-      <c r="B27" t="s">
-        <v>621</v>
-      </c>
-      <c r="C27" t="s">
-        <v>624</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -9547,13 +9508,13 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B28" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C28" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
@@ -9569,13 +9530,13 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B29" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C29" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
@@ -16969,10 +16930,10 @@
         <v>0</v>
       </c>
       <c r="B328" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C328" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D328" t="s">
         <v>74</v>
@@ -16983,10 +16944,10 @@
         <v>23</v>
       </c>
       <c r="C329" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D329" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E329" t="s">
         <v>2</v>
@@ -16995,10 +16956,10 @@
         <v>68</v>
       </c>
       <c r="H329" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="I329" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="330" spans="1:9">
@@ -17006,10 +16967,10 @@
         <v>23</v>
       </c>
       <c r="C330" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D330" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="E330" t="s">
         <v>2</v>
@@ -17026,10 +16987,10 @@
         <v>23</v>
       </c>
       <c r="C331" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D331" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E331" t="s">
         <v>2</v>
@@ -17046,10 +17007,10 @@
         <v>23</v>
       </c>
       <c r="C332" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D332" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="E332" t="s">
         <v>2</v>
@@ -17066,10 +17027,10 @@
         <v>23</v>
       </c>
       <c r="C333" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D333" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="E333" t="s">
         <v>2</v>
@@ -17083,10 +17044,10 @@
         <v>23</v>
       </c>
       <c r="C334" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D334" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="E334" t="s">
         <v>2</v>
@@ -17095,10 +17056,10 @@
         <v>68</v>
       </c>
       <c r="H334" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="I334" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="335" spans="1:9">
@@ -17106,10 +17067,10 @@
         <v>23</v>
       </c>
       <c r="C335" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D335" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E335" t="s">
         <v>2</v>
@@ -17118,10 +17079,10 @@
         <v>68</v>
       </c>
       <c r="H335" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="I335" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="336" spans="1:9">
@@ -17129,10 +17090,10 @@
         <v>0</v>
       </c>
       <c r="B336" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C336" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D336" t="s">
         <v>74</v>
@@ -17143,10 +17104,10 @@
         <v>23</v>
       </c>
       <c r="C337" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D337" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="E337" t="s">
         <v>2</v>
@@ -17155,10 +17116,10 @@
         <v>68</v>
       </c>
       <c r="H337" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="I337" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="338" spans="1:16">
@@ -17166,10 +17127,10 @@
         <v>23</v>
       </c>
       <c r="C338" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D338" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="E338" t="s">
         <v>2</v>
@@ -17178,10 +17139,10 @@
         <v>68</v>
       </c>
       <c r="H338" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="I338" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="339" spans="1:16">
@@ -17189,10 +17150,10 @@
         <v>23</v>
       </c>
       <c r="C339" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D339" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="E339" t="s">
         <v>2</v>
@@ -17209,10 +17170,10 @@
         <v>23</v>
       </c>
       <c r="C340" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D340" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E340" t="s">
         <v>2</v>
@@ -17229,10 +17190,10 @@
         <v>23</v>
       </c>
       <c r="C341" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D341" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="E341" t="s">
         <v>2</v>
@@ -17246,10 +17207,10 @@
         <v>0</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D342" s="1" t="s">
         <v>74</v>
@@ -17273,10 +17234,10 @@
         <v>23</v>
       </c>
       <c r="C343" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D343" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="E343" t="s">
         <v>2</v>
@@ -17285,10 +17246,10 @@
         <v>68</v>
       </c>
       <c r="H343" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="I343" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="L343" s="1"/>
       <c r="M343" s="1"/>
@@ -17302,10 +17263,10 @@
         <v>23</v>
       </c>
       <c r="C344" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D344" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="E344" t="s">
         <v>2</v>
@@ -17340,10 +17301,10 @@
         <v>0</v>
       </c>
       <c r="B345" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C345" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D345" s="1" t="s">
         <v>74</v>
@@ -17354,10 +17315,10 @@
         <v>23</v>
       </c>
       <c r="C346" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="E346" t="s">
         <v>2</v>
@@ -17568,10 +17529,10 @@
         <v>0</v>
       </c>
       <c r="B357" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C357" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="D357" t="s">
         <v>74</v>
@@ -17582,10 +17543,10 @@
         <v>23</v>
       </c>
       <c r="C358" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D358" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="E358" t="s">
         <v>2</v>
@@ -17602,10 +17563,10 @@
         <v>23</v>
       </c>
       <c r="C359" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D359" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="E359" t="s">
         <v>2</v>
@@ -17622,10 +17583,10 @@
         <v>0</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D360" s="1" t="s">
         <v>74</v>
@@ -17638,10 +17599,10 @@
         <v>23</v>
       </c>
       <c r="C361" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D361" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="E361" t="s">
         <v>2</v>
@@ -17651,10 +17612,10 @@
       </c>
       <c r="G361"/>
       <c r="H361" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="I361" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="J361"/>
       <c r="K361"/>
@@ -17665,10 +17626,10 @@
         <v>24</v>
       </c>
       <c r="C362" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D362" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="E362" t="s">
         <v>15</v>
@@ -17705,10 +17666,10 @@
         <v>0</v>
       </c>
       <c r="B363" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C363" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="D363" s="1" t="s">
         <v>74</v>
@@ -17719,10 +17680,10 @@
         <v>23</v>
       </c>
       <c r="C364" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="D364" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="E364" t="s">
         <v>2</v>
@@ -17739,10 +17700,10 @@
         <v>0</v>
       </c>
       <c r="B365" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C365" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D365" s="1" t="s">
         <v>74</v>
@@ -17753,10 +17714,10 @@
         <v>23</v>
       </c>
       <c r="C366" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D366" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E366" t="s">
         <v>2</v>
@@ -17854,16 +17815,16 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E7" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="G7" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -17874,10 +17835,10 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="G8" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -17888,66 +17849,66 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" s="37" customFormat="1"/>
+        <v>596</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" s="36" customFormat="1"/>
     <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C12" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="F12" t="s">
         <v>15</v>
       </c>
       <c r="I12" t="s">
+        <v>640</v>
+      </c>
+      <c r="L12" t="s">
         <v>643</v>
       </c>
-      <c r="L12" t="s">
-        <v>646</v>
-      </c>
       <c r="O12" t="s">
-        <v>650</v>
-      </c>
-      <c r="R12" s="37" t="s">
-        <v>636</v>
-      </c>
-      <c r="U12" s="37" t="s">
-        <v>637</v>
+        <v>647</v>
+      </c>
+      <c r="R12" s="36" t="s">
+        <v>633</v>
+      </c>
+      <c r="U12" s="36" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="F13" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="G13" t="s">
         <v>471</v>
       </c>
       <c r="H13" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="J13" s="36">
+        <v>590</v>
+      </c>
+      <c r="J13" s="35">
         <v>0.01</v>
       </c>
-      <c r="K13" s="38" t="s">
-        <v>665</v>
+      <c r="K13" s="37" t="s">
+        <v>662</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="M13">
         <v>30</v>
       </c>
       <c r="N13" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="O13" t="s">
         <v>4</v>
@@ -17955,8 +17916,8 @@
       <c r="P13">
         <v>30</v>
       </c>
-      <c r="Q13" s="37" t="s">
-        <v>667</v>
+      <c r="Q13" s="36" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -17970,229 +17931,229 @@
         <v>30</v>
       </c>
       <c r="H14" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="J14" s="36">
+        <v>595</v>
+      </c>
+      <c r="J14" s="35">
         <v>0.01</v>
       </c>
       <c r="K14" t="s">
-        <v>664</v>
-      </c>
-      <c r="L14" s="38" t="s">
-        <v>651</v>
+        <v>661</v>
+      </c>
+      <c r="L14" s="37" t="s">
+        <v>648</v>
       </c>
       <c r="M14">
         <v>5</v>
       </c>
-      <c r="N14" s="37" t="s">
-        <v>666</v>
-      </c>
-      <c r="O14" s="38" t="s">
-        <v>651</v>
+      <c r="N14" s="36" t="s">
+        <v>663</v>
+      </c>
+      <c r="O14" s="37" t="s">
+        <v>648</v>
       </c>
       <c r="P14">
         <v>3</v>
       </c>
       <c r="Q14" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="I15" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="J15" s="35">
+        <v>45036000000000</v>
+      </c>
+      <c r="K15" t="s">
+        <v>660</v>
+      </c>
+      <c r="L15" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="J15" s="36">
-        <v>45036000000000</v>
-      </c>
-      <c r="K15" t="s">
-        <v>663</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>647</v>
-      </c>
       <c r="M15">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>671</v>
-      </c>
-      <c r="O15" s="38" t="s">
-        <v>652</v>
+        <v>668</v>
+      </c>
+      <c r="O15" s="37" t="s">
+        <v>649</v>
       </c>
       <c r="P15">
         <v>0.85</v>
       </c>
       <c r="Q15" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="J16">
         <v>100</v>
       </c>
       <c r="K16" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="L16" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="M16">
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>669</v>
-      </c>
-      <c r="O16" s="38" t="s">
-        <v>653</v>
+        <v>666</v>
+      </c>
+      <c r="O16" s="37" t="s">
+        <v>650</v>
       </c>
       <c r="P16">
         <v>2</v>
       </c>
       <c r="Q16" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="J17" s="38" t="s">
-        <v>595</v>
+        <v>591</v>
+      </c>
+      <c r="J17" s="37" t="s">
+        <v>592</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="M17" s="36">
+        <v>646</v>
+      </c>
+      <c r="M17" s="35">
         <v>0.01</v>
       </c>
-      <c r="N17" s="38" t="s">
-        <v>670</v>
-      </c>
-      <c r="O17" s="38" t="s">
-        <v>654</v>
+      <c r="N17" s="37" t="s">
+        <v>667</v>
+      </c>
+      <c r="O17" s="37" t="s">
+        <v>651</v>
       </c>
       <c r="P17">
         <v>2</v>
       </c>
-      <c r="Q17" s="37" t="s">
-        <v>675</v>
+      <c r="Q17" s="36" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="J18" s="38">
+        <v>593</v>
+      </c>
+      <c r="J18" s="37">
         <v>2</v>
       </c>
       <c r="K18" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="M18" s="36">
+        <v>590</v>
+      </c>
+      <c r="M18" s="35">
         <v>0.01</v>
       </c>
-      <c r="N18" s="38" t="s">
-        <v>665</v>
-      </c>
-      <c r="O18" s="38" t="s">
-        <v>655</v>
+      <c r="N18" s="37" t="s">
+        <v>662</v>
+      </c>
+      <c r="O18" s="37" t="s">
+        <v>652</v>
       </c>
       <c r="P18">
         <v>0.8</v>
       </c>
       <c r="Q18" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="M19" s="36">
+        <v>595</v>
+      </c>
+      <c r="M19" s="35">
         <v>0.01</v>
       </c>
-      <c r="N19" s="37" t="s">
-        <v>664</v>
-      </c>
-      <c r="O19" s="38" t="s">
-        <v>594</v>
-      </c>
-      <c r="P19" s="38" t="s">
-        <v>595</v>
+      <c r="N19" s="36" t="s">
+        <v>661</v>
+      </c>
+      <c r="O19" s="37" t="s">
+        <v>591</v>
+      </c>
+      <c r="P19" s="37" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="L20" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="M20" s="36">
+        <v>641</v>
+      </c>
+      <c r="M20" s="35">
         <v>45036000000000</v>
       </c>
-      <c r="N20" s="37" t="s">
-        <v>663</v>
-      </c>
-      <c r="O20" s="38" t="s">
-        <v>596</v>
-      </c>
-      <c r="P20" s="38">
-        <v>2</v>
-      </c>
-      <c r="Q20" s="37" t="s">
-        <v>661</v>
+      <c r="N20" s="36" t="s">
+        <v>660</v>
+      </c>
+      <c r="O20" s="37" t="s">
+        <v>593</v>
+      </c>
+      <c r="P20" s="37">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="36" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="L21" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="M21" s="37">
+        <v>642</v>
+      </c>
+      <c r="M21" s="36">
         <v>100</v>
       </c>
-      <c r="N21" s="37" t="s">
-        <v>662</v>
+      <c r="N21" s="36" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="L22" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="M22" s="38" t="s">
-        <v>595</v>
+        <v>591</v>
+      </c>
+      <c r="M22" s="37" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="L23" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="M23" s="38">
-        <v>2</v>
-      </c>
-      <c r="N23" s="37" t="s">
-        <v>661</v>
+        <v>593</v>
+      </c>
+      <c r="M23" s="37">
+        <v>2</v>
+      </c>
+      <c r="N23" s="36" t="s">
+        <v>658</v>
       </c>
     </row>
   </sheetData>
